--- a/results/impute/yacht.xlsx
+++ b/results/impute/yacht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuli/My Drive/Research/DINI/dini/results/impute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E1BA3E-2661-B74F-91DD-3953F56AC890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63334760-6AC0-2C40-8CB8-2458AACB919B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40220" yWindow="9160" windowWidth="19240" windowHeight="9320" xr2:uid="{FB3A87BB-7BEB-D441-9EF8-D1413741322A}"/>
+    <workbookView xWindow="35420" yWindow="5740" windowWidth="28140" windowHeight="9320" xr2:uid="{FB3A87BB-7BEB-D441-9EF8-D1413741322A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,6 +95,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -139,14 +142,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,14 +467,14 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
       <c r="C1" t="s">
         <v>3</v>
       </c>
@@ -507,413 +510,413 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>7.3373179714287806E-2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>7.2906179737634899E-2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>9.5732374692852798E-2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>8.5819228759260499E-2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>7.0229742768237194E-2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>0.23799739670269701</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>8.4508691211294604E-2</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>0.14846246968537199</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>0.26925275448625102</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="3">
         <v>0.12782747999999999</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="4">
         <v>6.3082013806398801E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.20277661869494801</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0.18840473872226601</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0.23645234089578501</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>0.22764251344915801</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>0.20200514114091001</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>0.39520893358509301</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>0.230424576133819</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>0.24943021543621699</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>0.44443649142436398</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="3">
         <v>0.28906043999999997</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="4">
         <v>0.173696112821775</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>8.4534451775104796E-2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>8.3475963375142501E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>8.7746749978669797E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>9.9648826028733997E-2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>7.2963762362452597E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>0.37063071824876997</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>0.41042748366583898</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>0.151758298554732</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <v>0.28749252796684099</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="3">
         <v>0.18914900000000001</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="3">
         <v>7.7146896748509303E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>0.20619691170884499</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0.19545437274091301</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0.22222699401138199</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>0.243831714694176</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>0.20051359590378401</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>0.54602239359723803</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>0.57687992247511899</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>0.23970434746390901</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>0.45394489239786501</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="3">
         <v>0.35536719999999999</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="4">
         <v>0.19508323545157799</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>0.13613363727758901</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0.13313562654355801</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>0.13824666518522299</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>0.15733323660411</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>0.13223397471004</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>0.496298611472622</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>0.128189145799082</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>0.368455253206942</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>0.48371184434237502</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <v>0.12782747999999999</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="4">
         <v>0.12640706776815699</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>0.301421530119168</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>0.28858803640702801</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>0.29980450618286397</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>0.31956830801826802</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>0.29505121628187603</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>0.641452565540784</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>0.28757803872398802</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>0.47748430318816198</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <v>0.62180662061175795</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="3">
         <v>0.28906043999999997</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="4">
         <v>0.28641761238184299</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.12455265845312501</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.125124464100104</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.29444540267657998</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.29444540267657998</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.127891846619759</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.29444540267657998</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.108191897814718</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.15473661740668199</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.51534000788676804</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="C8" s="3">
+        <v>0.104926333109984</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.109850575233483</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.130642137421489</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.12883432458074401</v>
+      </c>
+      <c r="G8" s="3">
+        <v>9.0424866274320698E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.22023349075944701</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.117602046678388</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.104900249587596</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.40570098781800901</v>
+      </c>
+      <c r="L8" s="3">
         <v>0.12782747999999999</v>
       </c>
-      <c r="M8" s="2">
-        <v>0.10504602128299199</v>
+      <c r="M8" s="4">
+        <v>8.7578304824075304E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.28840537433982399</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.27892723080762599</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.42427758068702898</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.42427758068702898</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.29289601823862399</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.42427758068702898</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.28280554353946402</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.263743512321997</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.64517247285287604</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="C9" s="3">
+        <v>0.25091026759733698</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.245835478221097</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.277762375169058</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.28325761898086699</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.24250604273711299</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.351895570756253</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.26931412486822098</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.19997053386122399</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.56000646366509799</v>
+      </c>
+      <c r="L9" s="3">
         <v>0.28906043999999997</v>
       </c>
-      <c r="M9" s="1">
-        <v>0.26858822211900901</v>
+      <c r="M9" s="3">
+        <v>0.21771627167024499</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
+      <c r="A10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.104926333109984</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.109850575233483</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.130642137421489</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.12883432458074401</v>
-      </c>
-      <c r="G10" s="1">
-        <v>9.0424866274320698E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.22023349075944701</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.117602046678388</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.104900249587596</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.40570098781800901</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="C10" s="3">
+        <v>0.12455265845312501</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.125124464100104</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.29444540267657998</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.29444540267657998</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.127891846619759</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.29444540267657998</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.108191897814718</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.15473661740668199</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.51534000788676804</v>
+      </c>
+      <c r="L10" s="3">
         <v>0.12782747999999999</v>
       </c>
-      <c r="M10" s="2">
-        <v>8.7578304824075304E-2</v>
+      <c r="M10" s="4">
+        <v>0.10504602128299199</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.25091026759733698</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.245835478221097</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.277762375169058</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.28325761898086699</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.24250604273711299</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.351895570756253</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.26931412486822098</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.19997053386122399</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.56000646366509799</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="C11" s="3">
+        <v>0.28840537433982399</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.27892723080762599</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.42427758068702898</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.42427758068702898</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.29289601823862399</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.42427758068702898</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.28280554353946402</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.263743512321997</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.64517247285287604</v>
+      </c>
+      <c r="L11" s="3">
         <v>0.28906043999999997</v>
       </c>
-      <c r="M11" s="1">
-        <v>0.21771627167024499</v>
+      <c r="M11" s="3">
+        <v>0.26858822211900901</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
